--- a/QLBS/QLBS/Uploads/Excels/Tacgias.xlsx
+++ b/QLBS/QLBS/Uploads/Excels/Tacgias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE79151-D70B-4679-B63B-1C1F3FEC4F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ABC8FB-2426-48A5-B459-28AE8B732320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>TenTacGia</t>
+    <t>Tên Thể Loại</t>
   </si>
   <si>
-    <t>Nguyễn Du</t>
+    <t>Trinh Thám</t>
   </si>
   <si>
-    <t>Hihi</t>
+    <t>Lãng Mạn</t>
+  </si>
+  <si>
+    <t>Hài Hước</t>
   </si>
 </sst>
 </file>
@@ -352,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,82 +380,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
